--- a/время.xlsx
+++ b/время.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПРОГРАММИРОВАНИЕ\Тестовые задания\analyticum\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПРОГРАММИРОВАНИЕ\Тестовые задания\analyticum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Верстка</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 89:10</t>
-  </si>
-  <si>
-    <t>Цветовая тема</t>
   </si>
 </sst>
 </file>
@@ -208,20 +205,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -535,7 +532,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -548,13 +545,13 @@
         <f t="shared" ref="D3:D30" si="0">C3+24-B3</f>
         <v>24.079861111111111</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <f>SUM(D3:D5)</f>
         <v>72.125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
         <v>0</v>
       </c>
@@ -565,10 +562,10 @@
         <f t="shared" si="0"/>
         <v>24.03125</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4">
         <v>0.92152777777777783</v>
       </c>
@@ -579,13 +576,13 @@
         <f t="shared" si="0"/>
         <v>24.013888888888886</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4">
@@ -598,13 +595,13 @@
         <f t="shared" si="0"/>
         <v>24.055555555555557</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <f>SUM(D7:D10)</f>
         <v>95.434027777777771</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4">
         <v>0.74652777777777779</v>
       </c>
@@ -615,10 +612,10 @@
         <f t="shared" si="0"/>
         <v>24.076388888888889</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4">
         <v>0.86458333333333337</v>
       </c>
@@ -629,11 +626,11 @@
         <f t="shared" si="0"/>
         <v>23.274305555555557</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="18"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4">
         <v>0.6875</v>
       </c>
@@ -644,7 +641,7 @@
         <f t="shared" si="0"/>
         <v>24.027777777777779</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -680,7 +677,7 @@
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="4">
@@ -693,13 +690,13 @@
         <f t="shared" si="0"/>
         <v>24.090277777777779</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f>SUM(D15:D22)</f>
         <v>191.42708333333331</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4">
         <v>0.90625</v>
       </c>
@@ -710,10 +707,10 @@
         <f t="shared" si="0"/>
         <v>23.111111111111111</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -724,10 +721,10 @@
         <f t="shared" si="0"/>
         <v>24.041666666666664</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4">
         <v>0.83333333333333337</v>
       </c>
@@ -738,10 +735,10 @@
         <f t="shared" si="0"/>
         <v>24.041666666666668</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -752,10 +749,10 @@
         <f t="shared" si="0"/>
         <v>24.041666666666668</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -766,10 +763,10 @@
         <f t="shared" si="0"/>
         <v>24.013888888888889</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4">
         <v>0.11458333333333333</v>
       </c>
@@ -780,10 +777,10 @@
         <f t="shared" si="0"/>
         <v>24.010416666666668</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4">
         <v>0.17361111111111113</v>
       </c>
@@ -794,7 +791,7 @@
         <f t="shared" si="0"/>
         <v>24.076388888888889</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="11"/>
@@ -822,7 +819,7 @@
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="4">
@@ -835,13 +832,13 @@
         <f t="shared" si="0"/>
         <v>24.013888888888889</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <f>SUM(D26:D30)</f>
         <v>119.19444444444446</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="4">
         <v>0.99305555555555547</v>
       </c>
@@ -852,10 +849,10 @@
         <f t="shared" si="0"/>
         <v>23.041666666666664</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="4">
         <v>0.95833333333333337</v>
       </c>
@@ -866,10 +863,10 @@
         <f t="shared" si="0"/>
         <v>24.041666666666668</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="4">
         <v>0.77083333333333337</v>
       </c>
@@ -880,10 +877,10 @@
         <f t="shared" si="0"/>
         <v>24.083333333333336</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="4">
         <v>0.69444444444444453</v>
       </c>
@@ -894,7 +891,7 @@
         <f t="shared" si="0"/>
         <v>24.013888888888889</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -915,7 +912,7 @@
         <f>C32+24-B32</f>
         <v>24.020833333333336</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <f>SUM(D32:D33)</f>
         <v>47.090277777777779</v>
       </c>
@@ -931,13 +928,13 @@
         <f>C33+24-B33</f>
         <v>23.069444444444443</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="4">
@@ -950,13 +947,13 @@
         <f t="shared" ref="D35:D38" si="1">C35+24-B35</f>
         <v>24.052083333333332</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <f>SUM(D35:D39)</f>
         <v>119.23958333333333</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4">
         <v>0.80555555555555547</v>
       </c>
@@ -967,10 +964,10 @@
         <f t="shared" si="1"/>
         <v>24.006944444444443</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="4">
         <v>0.81944444444444453</v>
       </c>
@@ -981,10 +978,10 @@
         <f t="shared" si="1"/>
         <v>24.034722222222225</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="4">
         <v>0.86805555555555547</v>
       </c>
@@ -995,10 +992,10 @@
         <f t="shared" si="1"/>
         <v>24.020833333333332</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="4">
         <v>0.91319444444444453</v>
       </c>
@@ -1009,13 +1006,13 @@
         <f>C39+24-B39</f>
         <v>23.125</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="4">
@@ -1028,13 +1025,13 @@
         <f t="shared" ref="D41:D42" si="2">C41+24-B41</f>
         <v>24.184027777777779</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <f>SUM(D41:D42)</f>
         <v>47.375</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="4">
         <v>0.88888888888888884</v>
       </c>
@@ -1045,7 +1042,7 @@
         <f t="shared" si="2"/>
         <v>23.190972222222221</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" s="8"/>
@@ -1070,7 +1067,7 @@
         <f t="shared" ref="D45:D50" si="3">C45+24-B45</f>
         <v>24.041666666666668</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="18">
         <f>SUM(D45:D53)</f>
         <v>213.90625000000003</v>
       </c>
@@ -1086,7 +1083,7 @@
         <f t="shared" si="3"/>
         <v>24.027777777777775</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
@@ -1099,10 +1096,10 @@
         <f t="shared" si="3"/>
         <v>24.017361111111111</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="4">
@@ -1115,10 +1112,10 @@
         <f t="shared" si="3"/>
         <v>24.0625</v>
       </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="4">
         <v>0.78125</v>
       </c>
@@ -1129,7 +1126,7 @@
         <f t="shared" si="3"/>
         <v>23.243055555555557</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
@@ -1142,7 +1139,7 @@
         <f t="shared" si="3"/>
         <v>23.21875</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
@@ -1155,7 +1152,7 @@
         <f>C51+24-B51</f>
         <v>24.020833333333332</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
@@ -1168,7 +1165,7 @@
         <f>C52+24-B52</f>
         <v>23.190972222222221</v>
       </c>
-      <c r="E52" s="19"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
@@ -1181,7 +1178,7 @@
         <f>C53+24-B53</f>
         <v>24.083333333333336</v>
       </c>
-      <c r="E53" s="19"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D54" s="11"/>
@@ -1193,7 +1190,7 @@
       <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B56" s="4">
@@ -1206,13 +1203,13 @@
         <f t="shared" ref="D56:D59" si="4">C56+24-B56</f>
         <v>24.083333333333332</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <f>SUM(D56:D64)</f>
         <v>216.7222222222222</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="4">
         <v>0.79166666666666663</v>
       </c>
@@ -1223,10 +1220,10 @@
         <f t="shared" si="4"/>
         <v>24.041666666666664</v>
       </c>
-      <c r="E57" s="19"/>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="4">
         <v>0.875</v>
       </c>
@@ -1237,7 +1234,7 @@
         <f t="shared" si="4"/>
         <v>24.083333333333332</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
@@ -1253,7 +1250,7 @@
         <f t="shared" si="4"/>
         <v>24.055555555555557</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
@@ -1269,10 +1266,10 @@
         <f>C60+24-B60</f>
         <v>24.083333333333336</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="4">
@@ -1285,10 +1282,10 @@
         <f>C61+24-B61</f>
         <v>24.055555555555554</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -1299,10 +1296,10 @@
         <f>C62+24-B62</f>
         <v>24.027777777777775</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="4">
@@ -1315,10 +1312,10 @@
         <f>C63+24-B63</f>
         <v>24.041666666666664</v>
       </c>
-      <c r="E63" s="19"/>
+      <c r="E63" s="18"/>
     </row>
     <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="4">
         <v>0.70833333333333337</v>
       </c>
@@ -1329,35 +1326,19 @@
         <f>C64+24-B64</f>
         <v>24.25</v>
       </c>
-      <c r="E64" s="19"/>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E66" s="17" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E45:E53"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E56:E64"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="E41:E42"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="E32:E33"/>
@@ -1366,6 +1347,17 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E15:E22"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E45:E53"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E56:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
